--- a/bot1/jaipatel@xyz.com_Bot_1_Output.xlsx
+++ b/bot1/jaipatel@xyz.com_Bot_1_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1470024-CD49-4FDB-AF58-6A6C83ED4309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D557B9-242F-444E-BE11-4AF883CF9A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="16536" windowHeight="9420" xr2:uid="{31E146B1-F6B1-4E66-8907-62087F8D80D6}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="16536" windowHeight="9420" xr2:uid="{2A652CCB-4925-4D87-B25F-54DE563AE304}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,12 +417,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DBA147-C304-43F7-B94A-8949E9735D91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319632E8-8304-4524-8991-F7ECBADDA9C7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -436,13 +441,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/bot1/jaipatel@xyz.com_Bot_1_Output.xlsx
+++ b/bot1/jaipatel@xyz.com_Bot_1_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D557B9-242F-444E-BE11-4AF883CF9A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02771D0-F2F5-483A-9813-43235AEDDF28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="16536" windowHeight="9420" xr2:uid="{2A652CCB-4925-4D87-B25F-54DE563AE304}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16536" windowHeight="9420" xr2:uid="{89EEA1F5-D557-403D-9F6E-6C0D8642FEB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319632E8-8304-4524-8991-F7ECBADDA9C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51923568-9F65-4A11-B71E-34246124FDBC}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
